--- a/Code/Results/Cases/Case_3_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_95/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028244260730247</v>
+        <v>1.078166994231856</v>
       </c>
       <c r="D2">
-        <v>1.045619575978616</v>
+        <v>1.078379102296422</v>
       </c>
       <c r="E2">
-        <v>1.038580828373911</v>
+        <v>1.081245715788358</v>
       </c>
       <c r="F2">
-        <v>1.049607421983832</v>
+        <v>1.09137242642333</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059676994394378</v>
+        <v>1.052585734503189</v>
       </c>
       <c r="J2">
-        <v>1.049611803630129</v>
+        <v>1.083057820201336</v>
       </c>
       <c r="K2">
-        <v>1.056477940130731</v>
+        <v>1.081057929975439</v>
       </c>
       <c r="L2">
-        <v>1.049527616213578</v>
+        <v>1.0839170409593</v>
       </c>
       <c r="M2">
-        <v>1.060416344296356</v>
+        <v>1.094017588333633</v>
       </c>
       <c r="N2">
-        <v>1.05110237278344</v>
+        <v>1.08459588653449</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.037781300857946</v>
+        <v>1.079968708364879</v>
       </c>
       <c r="D3">
-        <v>1.053282907254096</v>
+        <v>1.079823307657738</v>
       </c>
       <c r="E3">
-        <v>1.046961947013593</v>
+        <v>1.082852628289828</v>
       </c>
       <c r="F3">
-        <v>1.058154876819703</v>
+        <v>1.093022595092452</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063089428972008</v>
+        <v>1.053093621682712</v>
       </c>
       <c r="J3">
-        <v>1.057292441589513</v>
+        <v>1.084516075177242</v>
       </c>
       <c r="K3">
-        <v>1.063276562465866</v>
+        <v>1.082318480791172</v>
       </c>
       <c r="L3">
-        <v>1.057027234791173</v>
+        <v>1.085340453596157</v>
       </c>
       <c r="M3">
-        <v>1.068094038802895</v>
+        <v>1.09548607232205</v>
       </c>
       <c r="N3">
-        <v>1.058793918129708</v>
+        <v>1.086056212399726</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.043728846396795</v>
+        <v>1.081131555418659</v>
       </c>
       <c r="D4">
-        <v>1.058063973416014</v>
+        <v>1.080755026700154</v>
       </c>
       <c r="E4">
-        <v>1.052190702097148</v>
+        <v>1.083889449513674</v>
       </c>
       <c r="F4">
-        <v>1.063490706589027</v>
+        <v>1.094087687258353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06520114482223</v>
+        <v>1.053419387390923</v>
       </c>
       <c r="J4">
-        <v>1.062076456955264</v>
+        <v>1.085456350196565</v>
       </c>
       <c r="K4">
-        <v>1.067508703175279</v>
+        <v>1.083130841339589</v>
       </c>
       <c r="L4">
-        <v>1.061697536460458</v>
+        <v>1.086258048708481</v>
       </c>
       <c r="M4">
-        <v>1.072878797908834</v>
+        <v>1.096433116379492</v>
       </c>
       <c r="N4">
-        <v>1.063584727346012</v>
+        <v>1.086997822717428</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.046179374388162</v>
+        <v>1.081619718299505</v>
       </c>
       <c r="D5">
-        <v>1.060034225493208</v>
+        <v>1.081146068093253</v>
       </c>
       <c r="E5">
-        <v>1.05434546390284</v>
+        <v>1.084324634778359</v>
       </c>
       <c r="F5">
-        <v>1.065690364532726</v>
+        <v>1.094534824732614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066067218124832</v>
+        <v>1.053555657119054</v>
       </c>
       <c r="J5">
-        <v>1.064046109047401</v>
+        <v>1.085850861629324</v>
       </c>
       <c r="K5">
-        <v>1.069250506814791</v>
+        <v>1.083471578832369</v>
       </c>
       <c r="L5">
-        <v>1.063620131717206</v>
+        <v>1.086642993257186</v>
       </c>
       <c r="M5">
-        <v>1.074849346225557</v>
+        <v>1.096830509210465</v>
       </c>
       <c r="N5">
-        <v>1.065557176570043</v>
+        <v>1.087392894401672</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.046588007592386</v>
+        <v>1.081701642524894</v>
       </c>
       <c r="D6">
-        <v>1.060362787337296</v>
+        <v>1.081211687697012</v>
       </c>
       <c r="E6">
-        <v>1.054704797392693</v>
+        <v>1.08439766398278</v>
       </c>
       <c r="F6">
-        <v>1.066057229773316</v>
+        <v>1.094609864693713</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06621140093219</v>
+        <v>1.05357849755326</v>
       </c>
       <c r="J6">
-        <v>1.06437446588963</v>
+        <v>1.085917056461739</v>
       </c>
       <c r="K6">
-        <v>1.069540841274642</v>
+        <v>1.083528744805396</v>
       </c>
       <c r="L6">
-        <v>1.063940629518039</v>
+        <v>1.086707579875607</v>
       </c>
       <c r="M6">
-        <v>1.075177886420997</v>
+        <v>1.096897189927976</v>
       </c>
       <c r="N6">
-        <v>1.065885999716651</v>
+        <v>1.087459183238342</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.043761781634485</v>
+        <v>1.081138080995855</v>
       </c>
       <c r="D7">
-        <v>1.058090452545748</v>
+        <v>1.080760254365098</v>
       </c>
       <c r="E7">
-        <v>1.052219660796639</v>
+        <v>1.083895267189848</v>
       </c>
       <c r="F7">
-        <v>1.063520265637808</v>
+        <v>1.09409366437717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065212800859488</v>
+        <v>1.053421210907009</v>
       </c>
       <c r="J7">
-        <v>1.062102935130849</v>
+        <v>1.085461624725342</v>
       </c>
       <c r="K7">
-        <v>1.067532120921825</v>
+        <v>1.08313539733579</v>
       </c>
       <c r="L7">
-        <v>1.061723383005783</v>
+        <v>1.086263195530858</v>
       </c>
       <c r="M7">
-        <v>1.072905285828666</v>
+        <v>1.096438429269741</v>
       </c>
       <c r="N7">
-        <v>1.063611243123644</v>
+        <v>1.087003104736641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.031515995911727</v>
+        <v>1.078776519162145</v>
       </c>
       <c r="D8">
-        <v>1.048248005353904</v>
+        <v>1.078867760717562</v>
       </c>
       <c r="E8">
-        <v>1.041455510390151</v>
+        <v>1.081789400406827</v>
       </c>
       <c r="F8">
-        <v>1.052538442663631</v>
+        <v>1.091930671274854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060851070786932</v>
+        <v>1.052757975017812</v>
       </c>
       <c r="J8">
-        <v>1.052247876707564</v>
+        <v>1.083551338269377</v>
       </c>
       <c r="K8">
-        <v>1.058811804192767</v>
+        <v>1.08148462909329</v>
       </c>
       <c r="L8">
-        <v>1.052101760426166</v>
+        <v>1.084398811742121</v>
       </c>
       <c r="M8">
-        <v>1.063050841709738</v>
+        <v>1.094514532091073</v>
       </c>
       <c r="N8">
-        <v>1.053742189387007</v>
+        <v>1.085090105454795</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008034212795586</v>
+        <v>1.07459158278698</v>
       </c>
       <c r="D9">
-        <v>1.029399050900647</v>
+        <v>1.075511130816403</v>
       </c>
       <c r="E9">
-        <v>1.020837674511622</v>
+        <v>1.078055307205318</v>
       </c>
       <c r="F9">
-        <v>1.031532033995528</v>
+        <v>1.088098079346159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052356284065966</v>
+        <v>1.051567042900392</v>
       </c>
       <c r="J9">
-        <v>1.03330641773176</v>
+        <v>1.080159203284838</v>
       </c>
       <c r="K9">
-        <v>1.042032499849978</v>
+        <v>1.078549985474744</v>
       </c>
       <c r="L9">
-        <v>1.033601485361039</v>
+        <v>1.081086533978311</v>
       </c>
       <c r="M9">
-        <v>1.044133433078124</v>
+        <v>1.091099575182507</v>
       </c>
       <c r="N9">
-        <v>1.034773831366842</v>
+        <v>1.081693153249495</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9907847407834466</v>
+        <v>1.071784771060945</v>
       </c>
       <c r="D10">
-        <v>1.015582349535289</v>
+        <v>1.073257958245904</v>
       </c>
       <c r="E10">
-        <v>1.005717440810557</v>
+        <v>1.075549373640774</v>
       </c>
       <c r="F10">
-        <v>1.016148206316612</v>
+        <v>1.085527950281398</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046032543096934</v>
+        <v>1.050757813178409</v>
       </c>
       <c r="J10">
-        <v>1.019368810407011</v>
+        <v>1.077879493977775</v>
       </c>
       <c r="K10">
-        <v>1.029675846230969</v>
+        <v>1.076575515011339</v>
       </c>
       <c r="L10">
-        <v>1.019984226758861</v>
+        <v>1.078859373448275</v>
       </c>
       <c r="M10">
-        <v>1.030231895063813</v>
+        <v>1.088805448792877</v>
       </c>
       <c r="N10">
-        <v>1.020816431041025</v>
+        <v>1.07941020649373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9828485385010167</v>
+        <v>1.070565166613561</v>
       </c>
       <c r="D11">
-        <v>1.009236070694219</v>
+        <v>1.07227848366277</v>
       </c>
       <c r="E11">
-        <v>0.9987696354591523</v>
+        <v>1.074460156868794</v>
       </c>
       <c r="F11">
-        <v>1.009084872440486</v>
+        <v>1.084411288048384</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043104935406597</v>
+        <v>1.050403710192859</v>
       </c>
       <c r="J11">
-        <v>1.012952664735191</v>
+        <v>1.076887832096593</v>
       </c>
       <c r="K11">
-        <v>1.023985885153262</v>
+        <v>1.075716109365099</v>
       </c>
       <c r="L11">
-        <v>1.013714792012993</v>
+        <v>1.077890302921544</v>
       </c>
       <c r="M11">
-        <v>1.023837471225975</v>
+        <v>1.087807736950089</v>
       </c>
       <c r="N11">
-        <v>1.01439117370641</v>
+        <v>1.078417136338931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9798211703271097</v>
+        <v>1.070111495133703</v>
       </c>
       <c r="D12">
-        <v>1.006817147285836</v>
+        <v>1.071914072227584</v>
       </c>
       <c r="E12">
-        <v>0.9961209036654317</v>
+        <v>1.074054935530638</v>
       </c>
       <c r="F12">
-        <v>1.00639298828557</v>
+        <v>1.083995925337464</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041985609987855</v>
+        <v>1.050271618008571</v>
       </c>
       <c r="J12">
-        <v>1.010504785734015</v>
+        <v>1.07651878765098</v>
       </c>
       <c r="K12">
-        <v>1.021814896651616</v>
+        <v>1.075396205937239</v>
       </c>
       <c r="L12">
-        <v>1.011322800303531</v>
+        <v>1.077529625542336</v>
       </c>
       <c r="M12">
-        <v>1.021398725154294</v>
+        <v>1.087436474547505</v>
       </c>
       <c r="N12">
-        <v>1.011939818436277</v>
+        <v>1.078047567807876</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9804743188276622</v>
+        <v>1.070208839212594</v>
       </c>
       <c r="D13">
-        <v>1.007338930853684</v>
+        <v>1.071992266696888</v>
       </c>
       <c r="E13">
-        <v>0.9966922849895855</v>
+        <v>1.074141886018488</v>
       </c>
       <c r="F13">
-        <v>1.006973637341176</v>
+        <v>1.084085048777314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042227214004395</v>
+        <v>1.050299977793302</v>
       </c>
       <c r="J13">
-        <v>1.011032923164965</v>
+        <v>1.07659798074135</v>
       </c>
       <c r="K13">
-        <v>1.022283300037669</v>
+        <v>1.075464857389582</v>
       </c>
       <c r="L13">
-        <v>1.011838883209593</v>
+        <v>1.077607024970241</v>
       </c>
       <c r="M13">
-        <v>1.021924852638102</v>
+        <v>1.087516142067673</v>
       </c>
       <c r="N13">
-        <v>1.012468705882956</v>
+        <v>1.078126873361517</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9825999777359414</v>
+        <v>1.070527679485691</v>
       </c>
       <c r="D14">
-        <v>1.009037424354035</v>
+        <v>1.072248373440722</v>
       </c>
       <c r="E14">
-        <v>0.9985521283301614</v>
+        <v>1.074426674255704</v>
       </c>
       <c r="F14">
-        <v>1.008863803413311</v>
+        <v>1.084376966061621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043013084150208</v>
+        <v>1.050392802925887</v>
       </c>
       <c r="J14">
-        <v>1.012751688635427</v>
+        <v>1.076857341081301</v>
       </c>
       <c r="K14">
-        <v>1.023807645147246</v>
+        <v>1.075689680039107</v>
       </c>
       <c r="L14">
-        <v>1.013518405923854</v>
+        <v>1.077860504027304</v>
       </c>
       <c r="M14">
-        <v>1.023637227370185</v>
+        <v>1.087777061998898</v>
       </c>
       <c r="N14">
-        <v>1.014189912197532</v>
+        <v>1.078386602022899</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9838988206307139</v>
+        <v>1.070724039972881</v>
       </c>
       <c r="D15">
-        <v>1.01007552289446</v>
+        <v>1.072406090508446</v>
       </c>
       <c r="E15">
-        <v>0.999688768460122</v>
+        <v>1.074602056667416</v>
       </c>
       <c r="F15">
-        <v>1.010019093584323</v>
+        <v>1.084556747957927</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043492946465528</v>
+        <v>1.050449920811692</v>
       </c>
       <c r="J15">
-        <v>1.013801866861401</v>
+        <v>1.077017048693951</v>
       </c>
       <c r="K15">
-        <v>1.024739012364109</v>
+        <v>1.075828109918471</v>
       </c>
       <c r="L15">
-        <v>1.01454459627775</v>
+        <v>1.078016584760337</v>
       </c>
       <c r="M15">
-        <v>1.024683614079164</v>
+        <v>1.087937734414936</v>
       </c>
       <c r="N15">
-        <v>1.015241581797043</v>
+        <v>1.078546536438678</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9913008424205741</v>
+        <v>1.071865621265977</v>
       </c>
       <c r="D16">
-        <v>1.015995302165066</v>
+        <v>1.073322880681826</v>
       </c>
       <c r="E16">
-        <v>1.006169468303523</v>
+        <v>1.07562157288051</v>
       </c>
       <c r="F16">
-        <v>1.016607869210763</v>
+        <v>1.085601978416934</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046222570283081</v>
+        <v>1.050781235294098</v>
       </c>
       <c r="J16">
-        <v>1.019786000796688</v>
+        <v>1.077945210443613</v>
       </c>
       <c r="K16">
-        <v>1.030045792004445</v>
+        <v>1.076632456067649</v>
       </c>
       <c r="L16">
-        <v>1.020391864331179</v>
+        <v>1.078923587179462</v>
       </c>
       <c r="M16">
-        <v>1.030647784304678</v>
+        <v>1.088871570861945</v>
       </c>
       <c r="N16">
-        <v>1.021234213888908</v>
+        <v>1.079476016284487</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9958128283286092</v>
+        <v>1.072580557062695</v>
       </c>
       <c r="D17">
-        <v>1.019606731933008</v>
+        <v>1.073896921645364</v>
       </c>
       <c r="E17">
-        <v>1.010122298776028</v>
+        <v>1.076259970471776</v>
       </c>
       <c r="F17">
-        <v>1.020628099901781</v>
+        <v>1.08625660020128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047881858876698</v>
+        <v>1.050988064636122</v>
       </c>
       <c r="J17">
-        <v>1.02343286978537</v>
+        <v>1.078526196959114</v>
       </c>
       <c r="K17">
-        <v>1.033279501093213</v>
+        <v>1.077135800896989</v>
       </c>
       <c r="L17">
-        <v>1.023955145032645</v>
+        <v>1.079491257512373</v>
       </c>
       <c r="M17">
-        <v>1.034283859072385</v>
+        <v>1.089456168784055</v>
       </c>
       <c r="N17">
-        <v>1.024886261849856</v>
+        <v>1.08005782786748</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9984002433245773</v>
+        <v>1.072997159597032</v>
       </c>
       <c r="D18">
-        <v>1.021678676095457</v>
+        <v>1.074231380908437</v>
       </c>
       <c r="E18">
-        <v>1.012389859235391</v>
+        <v>1.076631939568737</v>
       </c>
       <c r="F18">
-        <v>1.022934841904032</v>
+        <v>1.086638066503293</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048831682905707</v>
+        <v>1.051108348026244</v>
       </c>
       <c r="J18">
-        <v>1.025523824070417</v>
+        <v>1.078864640319299</v>
       </c>
       <c r="K18">
-        <v>1.035133412997842</v>
+        <v>1.077428965299293</v>
       </c>
       <c r="L18">
-        <v>1.025998100606854</v>
+        <v>1.079821918074281</v>
       </c>
       <c r="M18">
-        <v>1.036369094686835</v>
+        <v>1.089796737191033</v>
       </c>
       <c r="N18">
-        <v>1.026980185529824</v>
+        <v>1.080396751856057</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9992752181432674</v>
+        <v>1.073139141779588</v>
       </c>
       <c r="D19">
-        <v>1.022379489000851</v>
+        <v>1.074345360705476</v>
       </c>
       <c r="E19">
-        <v>1.013156797658073</v>
+        <v>1.076758704523686</v>
       </c>
       <c r="F19">
-        <v>1.023715118726073</v>
+        <v>1.086768075502946</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049152587449966</v>
+        <v>1.051149301252806</v>
       </c>
       <c r="J19">
-        <v>1.026230847306036</v>
+        <v>1.07897996724797</v>
       </c>
       <c r="K19">
-        <v>1.035760255743137</v>
+        <v>1.07752885458296</v>
       </c>
       <c r="L19">
-        <v>1.026688880736588</v>
+        <v>1.079934588606048</v>
       </c>
       <c r="M19">
-        <v>1.037074261973895</v>
+        <v>1.089912791846871</v>
       </c>
       <c r="N19">
-        <v>1.027688212819534</v>
+        <v>1.080512242562194</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9953333841716325</v>
+        <v>1.072503893500643</v>
       </c>
       <c r="D20">
-        <v>1.019222879060838</v>
+        <v>1.073835370768076</v>
       </c>
       <c r="E20">
-        <v>1.009702185929349</v>
+        <v>1.076191517682068</v>
       </c>
       <c r="F20">
-        <v>1.020200769499116</v>
+        <v>1.086186403200036</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047705718631844</v>
+        <v>1.050965910743725</v>
       </c>
       <c r="J20">
-        <v>1.02304538887151</v>
+        <v>1.078463907843293</v>
       </c>
       <c r="K20">
-        <v>1.032935934132085</v>
+        <v>1.07708184114259</v>
       </c>
       <c r="L20">
-        <v>1.023576552804712</v>
+        <v>1.079430398719811</v>
       </c>
       <c r="M20">
-        <v>1.033897475587968</v>
+        <v>1.089393490274995</v>
       </c>
       <c r="N20">
-        <v>1.024498230668654</v>
+        <v>1.07999545029397</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9819763030871734</v>
+        <v>1.070433807241897</v>
       </c>
       <c r="D21">
-        <v>1.008539024749626</v>
+        <v>1.072172972819975</v>
       </c>
       <c r="E21">
-        <v>0.9980063984252411</v>
+        <v>1.074342828960785</v>
       </c>
       <c r="F21">
-        <v>1.008309151114027</v>
+        <v>1.084291019972235</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042782575874738</v>
+        <v>1.050365483820285</v>
       </c>
       <c r="J21">
-        <v>1.012247405756158</v>
+        <v>1.076780985298174</v>
       </c>
       <c r="K21">
-        <v>1.023360408637686</v>
+        <v>1.075623494308034</v>
       </c>
       <c r="L21">
-        <v>1.01302563888888</v>
+        <v>1.077785880807569</v>
       </c>
       <c r="M21">
-        <v>1.023134795668059</v>
+        <v>1.087700246144541</v>
       </c>
       <c r="N21">
-        <v>1.013684913178732</v>
+        <v>1.078310137805803</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9731121089315315</v>
+        <v>1.069128456065898</v>
       </c>
       <c r="D22">
-        <v>1.001460546796515</v>
+        <v>1.071124330730154</v>
       </c>
       <c r="E22">
-        <v>0.9902542746879373</v>
+        <v>1.073176786658082</v>
       </c>
       <c r="F22">
-        <v>1.000432493815089</v>
+        <v>1.08309592629463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039500532107268</v>
+        <v>1.049984713448011</v>
       </c>
       <c r="J22">
-        <v>1.005079543189978</v>
+        <v>1.075718823968999</v>
       </c>
       <c r="K22">
-        <v>1.017003125389848</v>
+        <v>1.074702621514289</v>
       </c>
       <c r="L22">
-        <v>1.006021300499574</v>
+        <v>1.076747725040804</v>
       </c>
       <c r="M22">
-        <v>1.015995387784681</v>
+        <v>1.086631764718973</v>
       </c>
       <c r="N22">
-        <v>1.006506871425543</v>
+        <v>1.077246468085709</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9778589830022126</v>
+        <v>1.069820814771376</v>
       </c>
       <c r="D23">
-        <v>1.005249923099331</v>
+        <v>1.071680565473826</v>
       </c>
       <c r="E23">
-        <v>0.994404620297559</v>
+        <v>1.073795284062127</v>
       </c>
       <c r="F23">
-        <v>1.004649001947628</v>
+        <v>1.083729795163096</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041259424985369</v>
+        <v>1.050186878054584</v>
       </c>
       <c r="J23">
-        <v>1.008918121339698</v>
+        <v>1.076282284256428</v>
       </c>
       <c r="K23">
-        <v>1.020407672052456</v>
+        <v>1.075191172887073</v>
       </c>
       <c r="L23">
-        <v>1.009772340926746</v>
+        <v>1.077298472864302</v>
       </c>
       <c r="M23">
-        <v>1.019818229860471</v>
+        <v>1.087198559237673</v>
       </c>
       <c r="N23">
-        <v>1.010350900796526</v>
+        <v>1.077810728551376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9955501607146141</v>
+        <v>1.072538535722966</v>
       </c>
       <c r="D24">
-        <v>1.019396431877731</v>
+        <v>1.073863184100487</v>
       </c>
       <c r="E24">
-        <v>1.009892133877129</v>
+        <v>1.076222449778967</v>
       </c>
       <c r="F24">
-        <v>1.020393979155033</v>
+        <v>1.08621812332631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047785364232581</v>
+        <v>1.050975922236093</v>
       </c>
       <c r="J24">
-        <v>1.023220586149592</v>
+        <v>1.078492054961257</v>
       </c>
       <c r="K24">
-        <v>1.033091276454791</v>
+        <v>1.077106224555616</v>
       </c>
       <c r="L24">
-        <v>1.023747731343143</v>
+        <v>1.079457899584747</v>
       </c>
       <c r="M24">
-        <v>1.034072175211427</v>
+        <v>1.089421813285632</v>
       </c>
       <c r="N24">
-        <v>1.024673676746966</v>
+        <v>1.08002363738407</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014359823599571</v>
+        <v>1.075676384960971</v>
       </c>
       <c r="D25">
-        <v>1.034472684319523</v>
+        <v>1.076381562164344</v>
       </c>
       <c r="E25">
-        <v>1.026388274844933</v>
+        <v>1.079023509569926</v>
       </c>
       <c r="F25">
-        <v>1.037183796017334</v>
+        <v>1.089091487906264</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054659170535167</v>
+        <v>1.051877595156984</v>
       </c>
       <c r="J25">
-        <v>1.038413401499745</v>
+        <v>1.081039313273928</v>
       </c>
       <c r="K25">
-        <v>1.046558428410193</v>
+        <v>1.079311788638867</v>
       </c>
       <c r="L25">
-        <v>1.038590306136848</v>
+        <v>1.081946120671694</v>
       </c>
       <c r="M25">
-        <v>1.049231056307388</v>
+        <v>1.091985445823412</v>
       </c>
       <c r="N25">
-        <v>1.039888067637557</v>
+        <v>1.082574513095719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_95/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.078166994231856</v>
+        <v>1.028244260730248</v>
       </c>
       <c r="D2">
-        <v>1.078379102296422</v>
+        <v>1.045619575978617</v>
       </c>
       <c r="E2">
-        <v>1.081245715788358</v>
+        <v>1.038580828373911</v>
       </c>
       <c r="F2">
-        <v>1.09137242642333</v>
+        <v>1.049607421983833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052585734503189</v>
+        <v>1.059676994394378</v>
       </c>
       <c r="J2">
-        <v>1.083057820201336</v>
+        <v>1.049611803630129</v>
       </c>
       <c r="K2">
-        <v>1.081057929975439</v>
+        <v>1.056477940130731</v>
       </c>
       <c r="L2">
-        <v>1.0839170409593</v>
+        <v>1.049527616213578</v>
       </c>
       <c r="M2">
-        <v>1.094017588333633</v>
+        <v>1.060416344296357</v>
       </c>
       <c r="N2">
-        <v>1.08459588653449</v>
+        <v>1.051102372783441</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.079968708364879</v>
+        <v>1.037781300857947</v>
       </c>
       <c r="D3">
-        <v>1.079823307657738</v>
+        <v>1.053282907254097</v>
       </c>
       <c r="E3">
-        <v>1.082852628289828</v>
+        <v>1.046961947013594</v>
       </c>
       <c r="F3">
-        <v>1.093022595092452</v>
+        <v>1.058154876819704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053093621682712</v>
+        <v>1.063089428972009</v>
       </c>
       <c r="J3">
-        <v>1.084516075177242</v>
+        <v>1.057292441589514</v>
       </c>
       <c r="K3">
-        <v>1.082318480791172</v>
+        <v>1.063276562465867</v>
       </c>
       <c r="L3">
-        <v>1.085340453596157</v>
+        <v>1.057027234791174</v>
       </c>
       <c r="M3">
-        <v>1.09548607232205</v>
+        <v>1.068094038802896</v>
       </c>
       <c r="N3">
-        <v>1.086056212399726</v>
+        <v>1.058793918129709</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.081131555418659</v>
+        <v>1.043728846396798</v>
       </c>
       <c r="D4">
-        <v>1.080755026700154</v>
+        <v>1.058063973416017</v>
       </c>
       <c r="E4">
-        <v>1.083889449513674</v>
+        <v>1.05219070209715</v>
       </c>
       <c r="F4">
-        <v>1.094087687258353</v>
+        <v>1.06349070658903</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053419387390923</v>
+        <v>1.065201144822232</v>
       </c>
       <c r="J4">
-        <v>1.085456350196565</v>
+        <v>1.062076456955266</v>
       </c>
       <c r="K4">
-        <v>1.083130841339589</v>
+        <v>1.067508703175282</v>
       </c>
       <c r="L4">
-        <v>1.086258048708481</v>
+        <v>1.06169753646046</v>
       </c>
       <c r="M4">
-        <v>1.096433116379492</v>
+        <v>1.072878797908836</v>
       </c>
       <c r="N4">
-        <v>1.086997822717428</v>
+        <v>1.063584727346015</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.081619718299505</v>
+        <v>1.046179374388159</v>
       </c>
       <c r="D5">
-        <v>1.081146068093253</v>
+        <v>1.060034225493206</v>
       </c>
       <c r="E5">
-        <v>1.084324634778359</v>
+        <v>1.054345463902839</v>
       </c>
       <c r="F5">
-        <v>1.094534824732614</v>
+        <v>1.065690364532724</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053555657119054</v>
+        <v>1.066067218124831</v>
       </c>
       <c r="J5">
-        <v>1.085850861629324</v>
+        <v>1.064046109047399</v>
       </c>
       <c r="K5">
-        <v>1.083471578832369</v>
+        <v>1.069250506814789</v>
       </c>
       <c r="L5">
-        <v>1.086642993257186</v>
+        <v>1.063620131717204</v>
       </c>
       <c r="M5">
-        <v>1.096830509210465</v>
+        <v>1.074849346225555</v>
       </c>
       <c r="N5">
-        <v>1.087392894401672</v>
+        <v>1.065557176570041</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.081701642524894</v>
+        <v>1.046588007592383</v>
       </c>
       <c r="D6">
-        <v>1.081211687697012</v>
+        <v>1.060362787337294</v>
       </c>
       <c r="E6">
-        <v>1.08439766398278</v>
+        <v>1.054704797392691</v>
       </c>
       <c r="F6">
-        <v>1.094609864693713</v>
+        <v>1.066057229773313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05357849755326</v>
+        <v>1.066211400932189</v>
       </c>
       <c r="J6">
-        <v>1.085917056461739</v>
+        <v>1.064374465889627</v>
       </c>
       <c r="K6">
-        <v>1.083528744805396</v>
+        <v>1.06954084127464</v>
       </c>
       <c r="L6">
-        <v>1.086707579875607</v>
+        <v>1.063940629518036</v>
       </c>
       <c r="M6">
-        <v>1.096897189927976</v>
+        <v>1.075177886420994</v>
       </c>
       <c r="N6">
-        <v>1.087459183238342</v>
+        <v>1.065885999716648</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.081138080995855</v>
+        <v>1.043761781634484</v>
       </c>
       <c r="D7">
-        <v>1.080760254365098</v>
+        <v>1.058090452545746</v>
       </c>
       <c r="E7">
-        <v>1.083895267189848</v>
+        <v>1.052219660796638</v>
       </c>
       <c r="F7">
-        <v>1.09409366437717</v>
+        <v>1.063520265637806</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053421210907009</v>
+        <v>1.065212800859487</v>
       </c>
       <c r="J7">
-        <v>1.085461624725342</v>
+        <v>1.062102935130848</v>
       </c>
       <c r="K7">
-        <v>1.08313539733579</v>
+        <v>1.067532120921823</v>
       </c>
       <c r="L7">
-        <v>1.086263195530858</v>
+        <v>1.061723383005782</v>
       </c>
       <c r="M7">
-        <v>1.096438429269741</v>
+        <v>1.072905285828664</v>
       </c>
       <c r="N7">
-        <v>1.087003104736641</v>
+        <v>1.063611243123643</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.078776519162145</v>
+        <v>1.03151599591173</v>
       </c>
       <c r="D8">
-        <v>1.078867760717562</v>
+        <v>1.048248005353907</v>
       </c>
       <c r="E8">
-        <v>1.081789400406827</v>
+        <v>1.041455510390153</v>
       </c>
       <c r="F8">
-        <v>1.091930671274854</v>
+        <v>1.052538442663633</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052757975017812</v>
+        <v>1.060851070786933</v>
       </c>
       <c r="J8">
-        <v>1.083551338269377</v>
+        <v>1.052247876707566</v>
       </c>
       <c r="K8">
-        <v>1.08148462909329</v>
+        <v>1.058811804192769</v>
       </c>
       <c r="L8">
-        <v>1.084398811742121</v>
+        <v>1.052101760426169</v>
       </c>
       <c r="M8">
-        <v>1.094514532091073</v>
+        <v>1.063050841709741</v>
       </c>
       <c r="N8">
-        <v>1.085090105454795</v>
+        <v>1.05374218938701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.07459158278698</v>
+        <v>1.008034212795587</v>
       </c>
       <c r="D9">
-        <v>1.075511130816403</v>
+        <v>1.029399050900648</v>
       </c>
       <c r="E9">
-        <v>1.078055307205318</v>
+        <v>1.020837674511623</v>
       </c>
       <c r="F9">
-        <v>1.088098079346159</v>
+        <v>1.031532033995529</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051567042900392</v>
+        <v>1.052356284065966</v>
       </c>
       <c r="J9">
-        <v>1.080159203284838</v>
+        <v>1.033306417731762</v>
       </c>
       <c r="K9">
-        <v>1.078549985474744</v>
+        <v>1.04203249984998</v>
       </c>
       <c r="L9">
-        <v>1.081086533978311</v>
+        <v>1.03360148536104</v>
       </c>
       <c r="M9">
-        <v>1.091099575182507</v>
+        <v>1.044133433078126</v>
       </c>
       <c r="N9">
-        <v>1.081693153249495</v>
+        <v>1.034773831366844</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.071784771060945</v>
+        <v>0.9907847407834455</v>
       </c>
       <c r="D10">
-        <v>1.073257958245904</v>
+        <v>1.015582349535288</v>
       </c>
       <c r="E10">
-        <v>1.075549373640774</v>
+        <v>1.005717440810556</v>
       </c>
       <c r="F10">
-        <v>1.085527950281398</v>
+        <v>1.016148206316611</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050757813178409</v>
+        <v>1.046032543096934</v>
       </c>
       <c r="J10">
-        <v>1.077879493977775</v>
+        <v>1.019368810407009</v>
       </c>
       <c r="K10">
-        <v>1.076575515011339</v>
+        <v>1.029675846230968</v>
       </c>
       <c r="L10">
-        <v>1.078859373448275</v>
+        <v>1.019984226758859</v>
       </c>
       <c r="M10">
-        <v>1.088805448792877</v>
+        <v>1.030231895063811</v>
       </c>
       <c r="N10">
-        <v>1.07941020649373</v>
+        <v>1.020816431041024</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.070565166613561</v>
+        <v>0.9828485385010137</v>
       </c>
       <c r="D11">
-        <v>1.07227848366277</v>
+        <v>1.009236070694216</v>
       </c>
       <c r="E11">
-        <v>1.074460156868794</v>
+        <v>0.99876963545915</v>
       </c>
       <c r="F11">
-        <v>1.084411288048384</v>
+        <v>1.009084872440483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050403710192859</v>
+        <v>1.043104935406596</v>
       </c>
       <c r="J11">
-        <v>1.076887832096593</v>
+        <v>1.012952664735188</v>
       </c>
       <c r="K11">
-        <v>1.075716109365099</v>
+        <v>1.023985885153259</v>
       </c>
       <c r="L11">
-        <v>1.077890302921544</v>
+        <v>1.013714792012991</v>
       </c>
       <c r="M11">
-        <v>1.087807736950089</v>
+        <v>1.023837471225972</v>
       </c>
       <c r="N11">
-        <v>1.078417136338931</v>
+        <v>1.014391173706407</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.070111495133703</v>
+        <v>0.9798211703271099</v>
       </c>
       <c r="D12">
-        <v>1.071914072227584</v>
+        <v>1.006817147285837</v>
       </c>
       <c r="E12">
-        <v>1.074054935530638</v>
+        <v>0.996120903665432</v>
       </c>
       <c r="F12">
-        <v>1.083995925337464</v>
+        <v>1.00639298828557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050271618008571</v>
+        <v>1.041985609987856</v>
       </c>
       <c r="J12">
-        <v>1.07651878765098</v>
+        <v>1.010504785734016</v>
       </c>
       <c r="K12">
-        <v>1.075396205937239</v>
+        <v>1.021814896651617</v>
       </c>
       <c r="L12">
-        <v>1.077529625542336</v>
+        <v>1.011322800303532</v>
       </c>
       <c r="M12">
-        <v>1.087436474547505</v>
+        <v>1.021398725154294</v>
       </c>
       <c r="N12">
-        <v>1.078047567807876</v>
+        <v>1.011939818436277</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.070208839212594</v>
+        <v>0.9804743188276638</v>
       </c>
       <c r="D13">
-        <v>1.071992266696888</v>
+        <v>1.007338930853686</v>
       </c>
       <c r="E13">
-        <v>1.074141886018488</v>
+        <v>0.9966922849895871</v>
       </c>
       <c r="F13">
-        <v>1.084085048777314</v>
+        <v>1.006973637341177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050299977793302</v>
+        <v>1.042227214004396</v>
       </c>
       <c r="J13">
-        <v>1.07659798074135</v>
+        <v>1.011032923164966</v>
       </c>
       <c r="K13">
-        <v>1.075464857389582</v>
+        <v>1.022283300037671</v>
       </c>
       <c r="L13">
-        <v>1.077607024970241</v>
+        <v>1.011838883209595</v>
       </c>
       <c r="M13">
-        <v>1.087516142067673</v>
+        <v>1.021924852638103</v>
       </c>
       <c r="N13">
-        <v>1.078126873361517</v>
+        <v>1.012468705882958</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.070527679485691</v>
+        <v>0.9825999777359395</v>
       </c>
       <c r="D14">
-        <v>1.072248373440722</v>
+        <v>1.009037424354033</v>
       </c>
       <c r="E14">
-        <v>1.074426674255704</v>
+        <v>0.9985521283301597</v>
       </c>
       <c r="F14">
-        <v>1.084376966061621</v>
+        <v>1.00886380341331</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050392802925887</v>
+        <v>1.043013084150207</v>
       </c>
       <c r="J14">
-        <v>1.076857341081301</v>
+        <v>1.012751688635426</v>
       </c>
       <c r="K14">
-        <v>1.075689680039107</v>
+        <v>1.023807645147244</v>
       </c>
       <c r="L14">
-        <v>1.077860504027304</v>
+        <v>1.013518405923852</v>
       </c>
       <c r="M14">
-        <v>1.087777061998898</v>
+        <v>1.023637227370184</v>
       </c>
       <c r="N14">
-        <v>1.078386602022899</v>
+        <v>1.01418991219753</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.070724039972881</v>
+        <v>0.9838988206307142</v>
       </c>
       <c r="D15">
-        <v>1.072406090508446</v>
+        <v>1.01007552289446</v>
       </c>
       <c r="E15">
-        <v>1.074602056667416</v>
+        <v>0.9996887684601226</v>
       </c>
       <c r="F15">
-        <v>1.084556747957927</v>
+        <v>1.010019093584324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050449920811692</v>
+        <v>1.043492946465528</v>
       </c>
       <c r="J15">
-        <v>1.077017048693951</v>
+        <v>1.013801866861402</v>
       </c>
       <c r="K15">
-        <v>1.075828109918471</v>
+        <v>1.02473901236411</v>
       </c>
       <c r="L15">
-        <v>1.078016584760337</v>
+        <v>1.01454459627775</v>
       </c>
       <c r="M15">
-        <v>1.087937734414936</v>
+        <v>1.024683614079165</v>
       </c>
       <c r="N15">
-        <v>1.078546536438678</v>
+        <v>1.015241581797044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.071865621265977</v>
+        <v>0.9913008424205724</v>
       </c>
       <c r="D16">
-        <v>1.073322880681826</v>
+        <v>1.015995302165064</v>
       </c>
       <c r="E16">
-        <v>1.07562157288051</v>
+        <v>1.006169468303522</v>
       </c>
       <c r="F16">
-        <v>1.085601978416934</v>
+        <v>1.016607869210762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050781235294098</v>
+        <v>1.046222570283081</v>
       </c>
       <c r="J16">
-        <v>1.077945210443613</v>
+        <v>1.019786000796686</v>
       </c>
       <c r="K16">
-        <v>1.076632456067649</v>
+        <v>1.030045792004443</v>
       </c>
       <c r="L16">
-        <v>1.078923587179462</v>
+        <v>1.020391864331177</v>
       </c>
       <c r="M16">
-        <v>1.088871570861945</v>
+        <v>1.030647784304676</v>
       </c>
       <c r="N16">
-        <v>1.079476016284487</v>
+        <v>1.021234213888907</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.072580557062695</v>
+        <v>0.9958128283286061</v>
       </c>
       <c r="D17">
-        <v>1.073896921645364</v>
+        <v>1.019606731933006</v>
       </c>
       <c r="E17">
-        <v>1.076259970471776</v>
+        <v>1.010122298776025</v>
       </c>
       <c r="F17">
-        <v>1.08625660020128</v>
+        <v>1.020628099901778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050988064636122</v>
+        <v>1.047881858876697</v>
       </c>
       <c r="J17">
-        <v>1.078526196959114</v>
+        <v>1.023432869785367</v>
       </c>
       <c r="K17">
-        <v>1.077135800896989</v>
+        <v>1.03327950109321</v>
       </c>
       <c r="L17">
-        <v>1.079491257512373</v>
+        <v>1.023955145032642</v>
       </c>
       <c r="M17">
-        <v>1.089456168784055</v>
+        <v>1.034283859072382</v>
       </c>
       <c r="N17">
-        <v>1.08005782786748</v>
+        <v>1.024886261849852</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072997159597032</v>
+        <v>0.9984002433245773</v>
       </c>
       <c r="D18">
-        <v>1.074231380908437</v>
+        <v>1.021678676095457</v>
       </c>
       <c r="E18">
-        <v>1.076631939568737</v>
+        <v>1.012389859235391</v>
       </c>
       <c r="F18">
-        <v>1.086638066503293</v>
+        <v>1.022934841904032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051108348026244</v>
+        <v>1.048831682905707</v>
       </c>
       <c r="J18">
-        <v>1.078864640319299</v>
+        <v>1.025523824070417</v>
       </c>
       <c r="K18">
-        <v>1.077428965299293</v>
+        <v>1.035133412997842</v>
       </c>
       <c r="L18">
-        <v>1.079821918074281</v>
+        <v>1.025998100606854</v>
       </c>
       <c r="M18">
-        <v>1.089796737191033</v>
+        <v>1.036369094686835</v>
       </c>
       <c r="N18">
-        <v>1.080396751856057</v>
+        <v>1.026980185529824</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073139141779588</v>
+        <v>0.999275218143266</v>
       </c>
       <c r="D19">
-        <v>1.074345360705476</v>
+        <v>1.02237948900085</v>
       </c>
       <c r="E19">
-        <v>1.076758704523686</v>
+        <v>1.013156797658072</v>
       </c>
       <c r="F19">
-        <v>1.086768075502946</v>
+        <v>1.023715118726072</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051149301252806</v>
+        <v>1.049152587449965</v>
       </c>
       <c r="J19">
-        <v>1.07897996724797</v>
+        <v>1.026230847306035</v>
       </c>
       <c r="K19">
-        <v>1.07752885458296</v>
+        <v>1.035760255743136</v>
       </c>
       <c r="L19">
-        <v>1.079934588606048</v>
+        <v>1.026688880736587</v>
       </c>
       <c r="M19">
-        <v>1.089912791846871</v>
+        <v>1.037074261973894</v>
       </c>
       <c r="N19">
-        <v>1.080512242562194</v>
+        <v>1.027688212819533</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.072503893500643</v>
+        <v>0.9953333841716303</v>
       </c>
       <c r="D20">
-        <v>1.073835370768076</v>
+        <v>1.019222879060836</v>
       </c>
       <c r="E20">
-        <v>1.076191517682068</v>
+        <v>1.009702185929347</v>
       </c>
       <c r="F20">
-        <v>1.086186403200036</v>
+        <v>1.020200769499114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050965910743725</v>
+        <v>1.047705718631843</v>
       </c>
       <c r="J20">
-        <v>1.078463907843293</v>
+        <v>1.023045388871508</v>
       </c>
       <c r="K20">
-        <v>1.07708184114259</v>
+        <v>1.032935934132083</v>
       </c>
       <c r="L20">
-        <v>1.079430398719811</v>
+        <v>1.02357655280471</v>
       </c>
       <c r="M20">
-        <v>1.089393490274995</v>
+        <v>1.033897475587966</v>
       </c>
       <c r="N20">
-        <v>1.07999545029397</v>
+        <v>1.024498230668652</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.070433807241897</v>
+        <v>0.9819763030871733</v>
       </c>
       <c r="D21">
-        <v>1.072172972819975</v>
+        <v>1.008539024749626</v>
       </c>
       <c r="E21">
-        <v>1.074342828960785</v>
+        <v>0.9980063984252407</v>
       </c>
       <c r="F21">
-        <v>1.084291019972235</v>
+        <v>1.008309151114027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050365483820285</v>
+        <v>1.042782575874739</v>
       </c>
       <c r="J21">
-        <v>1.076780985298174</v>
+        <v>1.012247405756158</v>
       </c>
       <c r="K21">
-        <v>1.075623494308034</v>
+        <v>1.023360408637686</v>
       </c>
       <c r="L21">
-        <v>1.077785880807569</v>
+        <v>1.01302563888888</v>
       </c>
       <c r="M21">
-        <v>1.087700246144541</v>
+        <v>1.02313479566806</v>
       </c>
       <c r="N21">
-        <v>1.078310137805803</v>
+        <v>1.013684913178732</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.069128456065898</v>
+        <v>0.9731121089315311</v>
       </c>
       <c r="D22">
-        <v>1.071124330730154</v>
+        <v>1.001460546796514</v>
       </c>
       <c r="E22">
-        <v>1.073176786658082</v>
+        <v>0.9902542746879367</v>
       </c>
       <c r="F22">
-        <v>1.08309592629463</v>
+        <v>1.000432493815088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049984713448011</v>
+        <v>1.039500532107268</v>
       </c>
       <c r="J22">
-        <v>1.075718823968999</v>
+        <v>1.005079543189978</v>
       </c>
       <c r="K22">
-        <v>1.074702621514289</v>
+        <v>1.017003125389848</v>
       </c>
       <c r="L22">
-        <v>1.076747725040804</v>
+        <v>1.006021300499573</v>
       </c>
       <c r="M22">
-        <v>1.086631764718973</v>
+        <v>1.01599538778468</v>
       </c>
       <c r="N22">
-        <v>1.077246468085709</v>
+        <v>1.006506871425542</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.069820814771376</v>
+        <v>0.9778589830022136</v>
       </c>
       <c r="D23">
-        <v>1.071680565473826</v>
+        <v>1.005249923099332</v>
       </c>
       <c r="E23">
-        <v>1.073795284062127</v>
+        <v>0.9944046202975597</v>
       </c>
       <c r="F23">
-        <v>1.083729795163096</v>
+        <v>1.004649001947629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050186878054584</v>
+        <v>1.041259424985369</v>
       </c>
       <c r="J23">
-        <v>1.076282284256428</v>
+        <v>1.008918121339699</v>
       </c>
       <c r="K23">
-        <v>1.075191172887073</v>
+        <v>1.020407672052457</v>
       </c>
       <c r="L23">
-        <v>1.077298472864302</v>
+        <v>1.009772340926746</v>
       </c>
       <c r="M23">
-        <v>1.087198559237673</v>
+        <v>1.019818229860471</v>
       </c>
       <c r="N23">
-        <v>1.077810728551376</v>
+        <v>1.010350900796527</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.072538535722966</v>
+        <v>0.9955501607146127</v>
       </c>
       <c r="D24">
-        <v>1.073863184100487</v>
+        <v>1.01939643187773</v>
       </c>
       <c r="E24">
-        <v>1.076222449778967</v>
+        <v>1.009892133877127</v>
       </c>
       <c r="F24">
-        <v>1.08621812332631</v>
+        <v>1.020393979155032</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050975922236093</v>
+        <v>1.04778536423258</v>
       </c>
       <c r="J24">
-        <v>1.078492054961257</v>
+        <v>1.02322058614959</v>
       </c>
       <c r="K24">
-        <v>1.077106224555616</v>
+        <v>1.03309127645479</v>
       </c>
       <c r="L24">
-        <v>1.079457899584747</v>
+        <v>1.023747731343141</v>
       </c>
       <c r="M24">
-        <v>1.089421813285632</v>
+        <v>1.034072175211426</v>
       </c>
       <c r="N24">
-        <v>1.08002363738407</v>
+        <v>1.024673676746965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075676384960971</v>
+        <v>1.014359823599569</v>
       </c>
       <c r="D25">
-        <v>1.076381562164344</v>
+        <v>1.034472684319522</v>
       </c>
       <c r="E25">
-        <v>1.079023509569926</v>
+        <v>1.026388274844932</v>
       </c>
       <c r="F25">
-        <v>1.089091487906264</v>
+        <v>1.037183796017333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051877595156984</v>
+        <v>1.054659170535167</v>
       </c>
       <c r="J25">
-        <v>1.081039313273928</v>
+        <v>1.038413401499744</v>
       </c>
       <c r="K25">
-        <v>1.079311788638867</v>
+        <v>1.046558428410192</v>
       </c>
       <c r="L25">
-        <v>1.081946120671694</v>
+        <v>1.038590306136847</v>
       </c>
       <c r="M25">
-        <v>1.091985445823412</v>
+        <v>1.049231056307387</v>
       </c>
       <c r="N25">
-        <v>1.082574513095719</v>
+        <v>1.039888067637556</v>
       </c>
     </row>
   </sheetData>
